--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>430577.06829148</v>
+        <v>428214.9964843298</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937635</v>
+        <v>16636980.42967733</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129926</v>
+        <v>2069122.084925922</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6698760.977378292</v>
+        <v>7353534.47725798</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -671,7 +673,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>15.2493793177643</v>
+        <v>59.40801272130588</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -820,10 +822,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>102.8562685532377</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -832,7 +834,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -905,16 +907,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>28.60468344882564</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>297.7139089028271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1063,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>54.49360828358961</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1139,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1151,7 +1153,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1193,13 +1195,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>220.3571399640574</v>
+        <v>185.1447535886767</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>245.2883219075749</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>83.18350266509944</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617047</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>32.19246757545142</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1847,22 +1849,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>117.3503365794304</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2008,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>28.46824604904426</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.45405731752537</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2494,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2573,7 +2575,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>18.05677735225751</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>61.08641542222794</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3977,22 +3979,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>253.0694479321201</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4028,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4037,7 +4039,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5168019860615</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1351.369965159541</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C2" t="n">
-        <v>1351.369965159541</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D2" t="n">
-        <v>915.4601803339856</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E2" t="n">
-        <v>481.6854354922808</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148856</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4358,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2190.771296621484</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2175.367883169197</v>
+        <v>2610.052732773543</v>
       </c>
       <c r="W2" t="n">
-        <v>1770.51242858023</v>
+        <v>2610.052732773543</v>
       </c>
       <c r="X2" t="n">
-        <v>1351.369965159541</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="Y2" t="n">
-        <v>1351.369965159541</v>
+        <v>2190.910269352854</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4403,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862857</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862857</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862857</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392438</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>900.7186013536161</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1568898368411</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1568898368411</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2402.763558715255</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U4" t="n">
-        <v>2124.330557968361</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.375049838791</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W4" t="n">
-        <v>1565.348645425083</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X4" t="n">
-        <v>1319.956890758495</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y4" t="n">
-        <v>1092.537220072603</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>923.502535568749</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="C5" t="n">
-        <v>923.502535568749</v>
+        <v>1668.976949988743</v>
       </c>
       <c r="D5" t="n">
-        <v>487.5927507431934</v>
+        <v>1233.067165163188</v>
       </c>
       <c r="E5" t="n">
-        <v>53.81800590148855</v>
+        <v>799.292420321483</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>371.4249907306907</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4568,49 +4570,49 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748444</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.221573682271</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>1643.366119093304</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="X5" t="n">
-        <v>1224.223655672615</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="Y5" t="n">
-        <v>923.502535568749</v>
+        <v>2107.11942280532</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L6" t="n">
-        <v>714.2412710704069</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M6" t="n">
-        <v>1375.081325612185</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N6" t="n">
-        <v>1716.640978007438</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O6" t="n">
-        <v>1716.640978007438</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762.8950539462408</v>
+        <v>867.0923738769416</v>
       </c>
       <c r="C7" t="n">
-        <v>590.3333424294657</v>
+        <v>694.5306623601665</v>
       </c>
       <c r="D7" t="n">
-        <v>424.4553496309884</v>
+        <v>528.6526695616892</v>
       </c>
       <c r="E7" t="n">
-        <v>254.6973458817257</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="F7" t="n">
-        <v>77.99029184348186</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
         <v>53.40121652862856</v>
@@ -4750,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2615.016777660126</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2369.137331238581</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>2090.704330491686</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431416</v>
+        <v>1803.748822362116</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1531.722417948408</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.13334335112</v>
+        <v>1286.330663281821</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.7136726652279</v>
+        <v>1058.910992595929</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1605.571376894645</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C8" t="n">
-        <v>1605.571376894645</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D8" t="n">
-        <v>1605.571376894645</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.796632052941</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F8" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4805,10 +4807,10 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
         <v>1149.495958523325</v>
@@ -4817,37 +4819,37 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2471.176067606882</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621483</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1828.15434655531</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.15434655531</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1605.571376894645</v>
+        <v>1152.632115535355</v>
       </c>
       <c r="Y8" t="n">
-        <v>1605.571376894645</v>
+        <v>744.3459918350084</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4883,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>927.4534741707607</v>
+        <v>1437.165577540213</v>
       </c>
       <c r="C11" t="n">
-        <v>489.311001354184</v>
+        <v>1189.39959581539</v>
       </c>
       <c r="D11" t="n">
-        <v>53.40121652862856</v>
+        <v>1189.39959581539</v>
       </c>
       <c r="E11" t="n">
-        <v>53.40121652862856</v>
+        <v>1189.39959581539</v>
       </c>
       <c r="F11" t="n">
-        <v>53.40121652862856</v>
+        <v>761.5321662245977</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862856</v>
+        <v>360.1343348478616</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862856</v>
+        <v>71.00418029107789</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821789</v>
       </c>
       <c r="J11" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821789</v>
       </c>
       <c r="K11" t="n">
-        <v>714.2412710704069</v>
+        <v>904.9376828763959</v>
       </c>
       <c r="L11" t="n">
-        <v>714.2412710704069</v>
+        <v>1658.386643711495</v>
       </c>
       <c r="M11" t="n">
-        <v>714.2412710704069</v>
+        <v>1658.386643711495</v>
       </c>
       <c r="N11" t="n">
-        <v>714.2412710704069</v>
+        <v>1658.386643711495</v>
       </c>
       <c r="O11" t="n">
-        <v>1375.081325612185</v>
+        <v>2531.905606324441</v>
       </c>
       <c r="P11" t="n">
-        <v>2035.921380153963</v>
+        <v>3360.215481157838</v>
       </c>
       <c r="Q11" t="n">
-        <v>2582.420166112558</v>
+        <v>3360.215481157838</v>
       </c>
       <c r="R11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910894</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910894</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>3309.302318783933</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>3050.08001610095</v>
       </c>
       <c r="V11" t="n">
-        <v>2586.037086365671</v>
+        <v>2687.463066034777</v>
       </c>
       <c r="W11" t="n">
-        <v>2181.181631776704</v>
+        <v>2282.60761144581</v>
       </c>
       <c r="X11" t="n">
-        <v>1762.039168356015</v>
+        <v>1863.465148025121</v>
       </c>
       <c r="Y11" t="n">
-        <v>1353.753044655668</v>
+        <v>1863.465148025121</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>559.5729615199214</v>
+        <v>576.7591359095106</v>
       </c>
       <c r="C12" t="n">
-        <v>453.1165003565636</v>
+        <v>470.3026747461529</v>
       </c>
       <c r="D12" t="n">
-        <v>358.0262115031169</v>
+        <v>375.2123858927062</v>
       </c>
       <c r="E12" t="n">
-        <v>263.9057968300706</v>
+        <v>281.0919712196599</v>
       </c>
       <c r="F12" t="n">
-        <v>180.5219584462322</v>
+        <v>197.7081328358215</v>
       </c>
       <c r="G12" t="n">
-        <v>95.13686871241609</v>
+        <v>112.3230431020054</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821789</v>
       </c>
       <c r="I12" t="n">
-        <v>53.40121652862856</v>
+        <v>96.65106407867549</v>
       </c>
       <c r="J12" t="n">
-        <v>377.9595414948409</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="K12" t="n">
-        <v>1038.799596036619</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="L12" t="n">
-        <v>1038.799596036619</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="M12" t="n">
-        <v>1038.799596036619</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="N12" t="n">
-        <v>1038.799596036619</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="O12" t="n">
-        <v>1038.799596036619</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="P12" t="n">
-        <v>1175.902039375362</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="Q12" t="n">
-        <v>1716.640978007438</v>
+        <v>1616.654374302687</v>
       </c>
       <c r="R12" t="n">
-        <v>1716.640978007438</v>
+        <v>1733.827152397027</v>
       </c>
       <c r="S12" t="n">
-        <v>1653.185540455821</v>
+        <v>1670.37171484541</v>
       </c>
       <c r="T12" t="n">
-        <v>1523.006896786422</v>
+        <v>1540.193071176011</v>
       </c>
       <c r="U12" t="n">
-        <v>1346.67034978639</v>
+        <v>1363.85652417598</v>
       </c>
       <c r="V12" t="n">
-        <v>1147.55283184839</v>
+        <v>1164.739006237979</v>
       </c>
       <c r="W12" t="n">
-        <v>962.2300775815838</v>
+        <v>979.4162519711731</v>
       </c>
       <c r="X12" t="n">
-        <v>807.3626418204638</v>
+        <v>824.548816210053</v>
       </c>
       <c r="Y12" t="n">
-        <v>680.8768625996845</v>
+        <v>698.0630369892738</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>903.8972536055599</v>
+        <v>780.08122833583</v>
       </c>
       <c r="C13" t="n">
-        <v>731.3355420887848</v>
+        <v>607.519516819055</v>
       </c>
       <c r="D13" t="n">
-        <v>565.4575492903075</v>
+        <v>441.6415240205777</v>
       </c>
       <c r="E13" t="n">
-        <v>395.6995455410447</v>
+        <v>271.8835202713149</v>
       </c>
       <c r="F13" t="n">
-        <v>218.9924915028009</v>
+        <v>95.17646623307112</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821789</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821789</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821789</v>
       </c>
       <c r="J13" t="n">
-        <v>139.9809016933184</v>
+        <v>157.1670760829077</v>
       </c>
       <c r="K13" t="n">
-        <v>414.739356264454</v>
+        <v>431.9255306540433</v>
       </c>
       <c r="L13" t="n">
-        <v>832.9492380324151</v>
+        <v>850.1354124220044</v>
       </c>
       <c r="M13" t="n">
-        <v>1292.433105213328</v>
+        <v>1309.619279602917</v>
       </c>
       <c r="N13" t="n">
-        <v>1734.691908370973</v>
+        <v>1751.878082760562</v>
       </c>
       <c r="O13" t="n">
-        <v>2154.361157596754</v>
+        <v>2171.547331986344</v>
       </c>
       <c r="P13" t="n">
-        <v>2501.868051567096</v>
+        <v>2519.054225956686</v>
       </c>
       <c r="Q13" t="n">
-        <v>2670.060826431428</v>
+        <v>2687.247000821018</v>
       </c>
       <c r="R13" t="n">
-        <v>2670.060826431428</v>
+        <v>2687.247000821018</v>
       </c>
       <c r="S13" t="n">
-        <v>2651.821657388744</v>
+        <v>2528.005632119014</v>
       </c>
       <c r="T13" t="n">
-        <v>2405.942210967199</v>
+        <v>2282.126185697469</v>
       </c>
       <c r="U13" t="n">
-        <v>2127.509210220304</v>
+        <v>2003.693184950575</v>
       </c>
       <c r="V13" t="n">
-        <v>1840.553702090735</v>
+        <v>1716.737676821005</v>
       </c>
       <c r="W13" t="n">
-        <v>1568.527297677026</v>
+        <v>1444.711272407297</v>
       </c>
       <c r="X13" t="n">
-        <v>1323.135543010439</v>
+        <v>1199.319517740709</v>
       </c>
       <c r="Y13" t="n">
-        <v>1095.715872324547</v>
+        <v>971.8998470548172</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>85.91886054423605</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>85.91886054423605</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>85.91886054423605</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>53.40121652862856</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862856</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>488.6559039815464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1149.495958523325</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1149.495958523325</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1149.495958523325</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>1149.495958523325</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719776</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678371</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2586.408952615265</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2366.341725488303</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2107.11942280532</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>1744.502472739146</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>1339.64701815018</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>920.5045547294905</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>512.2184310291439</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>79.46488968908616</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>404.0232146552985</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.8950539462408</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>590.3333424294657</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>424.4553496309884</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>254.6973458817257</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>77.99029184348186</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2510.819457729425</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.94001130788</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>1986.507010560985</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1699.551502431416</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1427.525098017707</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1182.13334335112</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>954.7136726652279</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1011.477214236518</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>573.3347414199409</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>454.7990479053647</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>454.7990479053647</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>454.7990479053647</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862856</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>53.40121652862856</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>141.0418768474983</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8819313892766</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>801.8819313892766</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>1462.721985931055</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>2123.562040472833</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.060826431428</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>2265.205371842461</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>1846.062908421772</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>1437.776784721425</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>79.46488968908616</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>404.0232146552985</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.8950539462408</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>590.3333424294657</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>424.4553496309884</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>395.6995455410447</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>218.9924915028009</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2510.819457729425</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.94001130788</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>1986.507010560985</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1699.551502431416</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1427.525098017707</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1182.13334335112</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>954.7136726652279</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,19 +5755,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6175,22 +6177,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,43 +6235,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6406,7 +6408,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
         <v>2700.681281130895</v>
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6649,22 +6651,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6780,19 +6782,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6944,22 +6946,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7184,40 +7186,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>710.8415422601641</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>455.2158372782247</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>455.2158372782247</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>455.2158372782247</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>455.2158372782247</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>53.81800590148855</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>53.81800590148855</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>488.6559039815464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1149.495958523325</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1149.495958523325</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1149.495958523325</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>1293.567921177998</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>1954.407975719776</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719776</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678371</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2586.408952615265</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2586.408952615265</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2327.186649932281</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.569699866108</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>1964.569699866108</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>1545.427236445419</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1137.141112745072</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>559.5729615199214</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C45" t="n">
-        <v>453.1165003565636</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D45" t="n">
-        <v>358.0262115031169</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E45" t="n">
-        <v>263.9057968300706</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F45" t="n">
-        <v>180.5219584462322</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G45" t="n">
-        <v>95.13686871241609</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862856</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I45" t="n">
-        <v>79.46488968908616</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J45" t="n">
-        <v>404.0232146552985</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K45" t="n">
-        <v>404.0232146552985</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L45" t="n">
-        <v>404.0232146552985</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M45" t="n">
-        <v>404.0232146552985</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N45" t="n">
-        <v>404.0232146552985</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O45" t="n">
-        <v>404.0232146552985</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P45" t="n">
-        <v>1058.729261281022</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q45" t="n">
-        <v>1599.468199913098</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R45" t="n">
-        <v>1716.640978007438</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S45" t="n">
-        <v>1653.185540455821</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.006896786422</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U45" t="n">
-        <v>1346.67034978639</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V45" t="n">
-        <v>1147.55283184839</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W45" t="n">
-        <v>962.2300775815838</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X45" t="n">
-        <v>807.3626418204638</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8768625996845</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>959.897665623735</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C46" t="n">
-        <v>959.897665623735</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D46" t="n">
-        <v>794.0196728252577</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E46" t="n">
-        <v>624.2616690759949</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F46" t="n">
-        <v>447.554615037751</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G46" t="n">
-        <v>281.9633400635787</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H46" t="n">
-        <v>142.0611657539532</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862856</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933184</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K46" t="n">
-        <v>414.739356264454</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L46" t="n">
-        <v>832.9492380324151</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370973</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R46" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S46" t="n">
-        <v>2670.060826431428</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T46" t="n">
-        <v>2424.181380009883</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U46" t="n">
-        <v>2145.748379262989</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V46" t="n">
-        <v>1858.792871133419</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W46" t="n">
-        <v>1586.766466719711</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X46" t="n">
-        <v>1341.374712053123</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.955041367231</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8216,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="O5" t="n">
         <v>667.515206607857</v>
@@ -8237,7 +8239,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,22 +8291,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.8936957823703</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8690,10 +8692,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>761.0595563990898</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078568</v>
+        <v>882.3423864777237</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078567</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>138.4873165037804</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>145.5272350047205</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>88.52591951400984</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9401,22 +9403,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9644,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9954,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10118,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10428,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10592,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>145.5272350047205</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22547,7 +22549,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22598,16 +22600,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>343.7414012477474</v>
+        <v>299.5827678442058</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22708,10 +22710,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>65.20415515853239</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22784,7 +22786,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22793,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>368.7791696141431</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>106.489353560516</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22951,13 +22953,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22990,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23027,10 +23029,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>194.593898822425</v>
+        <v>229.8062851978057</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>188.472726180836</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>275.8072779004123</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>397.2445298178363</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23735,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>314.2003503978694</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24889,7 +24891,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>208.2197249473434</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>180.6916001562909</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.38363054573577</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457244.8235999201</v>
+        <v>457244.82359992</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457244.8235999199</v>
+        <v>457244.82359992</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457244.82359992</v>
+        <v>546969.1104180543</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457244.8235999199</v>
+        <v>712327.4728905305</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457244.82359992</v>
+        <v>712327.4728905305</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712327.4728905304</v>
+        <v>712327.4728905305</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712327.4728905305</v>
+        <v>712327.4728905304</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712327.4728905304</v>
+        <v>712327.4728905305</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712327.4728905304</v>
+        <v>712327.4728905305</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457244.8235999199</v>
+        <v>712327.4728905305</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26319,22 @@
         <v>169095.6142289526</v>
       </c>
       <c r="D2" t="n">
-        <v>169095.6142289526</v>
+        <v>169095.6142289525</v>
       </c>
       <c r="E2" t="n">
-        <v>169095.6142289526</v>
+        <v>202276.926750584</v>
       </c>
       <c r="F2" t="n">
-        <v>169095.6142289526</v>
+        <v>263428.7920686761</v>
       </c>
       <c r="G2" t="n">
-        <v>169095.6142289526</v>
+        <v>263428.7920686761</v>
       </c>
       <c r="H2" t="n">
         <v>263428.7920686761</v>
       </c>
       <c r="I2" t="n">
-        <v>263428.792068676</v>
+        <v>263428.7920686761</v>
       </c>
       <c r="J2" t="n">
         <v>263428.7920686761</v>
@@ -26350,10 +26352,10 @@
         <v>263428.7920686761</v>
       </c>
       <c r="O2" t="n">
+        <v>263428.792068676</v>
+      </c>
+      <c r="P2" t="n">
         <v>263428.7920686761</v>
-      </c>
-      <c r="P2" t="n">
-        <v>169095.6142289525</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>64142.66971118504</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>113440.8343649013</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>53535.79253229024</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>96971.03661968611</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35023.37484795162</v>
+        <v>35023.37484795161</v>
       </c>
       <c r="C4" t="n">
         <v>35023.37484795161</v>
       </c>
       <c r="D4" t="n">
-        <v>35023.37484795161</v>
+        <v>35023.37484795162</v>
       </c>
       <c r="E4" t="n">
-        <v>35023.37484795161</v>
+        <v>41895.94544471843</v>
       </c>
       <c r="F4" t="n">
-        <v>35023.37484795162</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="G4" t="n">
-        <v>35023.37484795161</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962276</v>
@@ -26451,13 +26453,13 @@
         <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="O4" t="n">
         <v>54561.82510962277</v>
       </c>
-      <c r="O4" t="n">
-        <v>54561.82510962275</v>
-      </c>
       <c r="P4" t="n">
-        <v>35023.37484795162</v>
+        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26476,13 +26478,13 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.9245617577</v>
+        <v>53646.41709784559</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26511,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163839.9837648016</v>
+        <v>-163839.9837648015</v>
       </c>
       <c r="C6" t="n">
-        <v>59859.71481924325</v>
+        <v>59859.71481924328</v>
       </c>
       <c r="D6" t="n">
-        <v>59859.71481924325</v>
+        <v>59859.71481924322</v>
       </c>
       <c r="E6" t="n">
-        <v>93487.31481924333</v>
+        <v>42591.8944968349</v>
       </c>
       <c r="F6" t="n">
-        <v>93487.31481924321</v>
+        <v>17707.89398835957</v>
       </c>
       <c r="G6" t="n">
-        <v>93487.3148192433</v>
+        <v>131148.7283532608</v>
       </c>
       <c r="H6" t="n">
-        <v>-33635.84942481468</v>
+        <v>131148.7283532608</v>
       </c>
       <c r="I6" t="n">
         <v>131148.7283532608</v>
       </c>
       <c r="J6" t="n">
-        <v>-43502.62036444536</v>
+        <v>-43502.62036444531</v>
       </c>
       <c r="K6" t="n">
         <v>131148.7283532608</v>
@@ -26552,16 +26554,16 @@
         <v>131148.7283532608</v>
       </c>
       <c r="M6" t="n">
-        <v>131148.7283532608</v>
+        <v>77612.93582097057</v>
       </c>
       <c r="N6" t="n">
-        <v>131148.7283532608</v>
+        <v>34177.6917335747</v>
       </c>
       <c r="O6" t="n">
         <v>131148.7283532608</v>
       </c>
       <c r="P6" t="n">
-        <v>93487.31481924321</v>
+        <v>131148.7283532608</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -26796,13 +26798,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>667.515206607857</v>
+        <v>882.3423864777236</v>
       </c>
       <c r="F4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>214.8271798698666</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>395.9181169070217</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>214.8271798698666</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>395.9181169070217</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>214.8271798698666</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>395.9181169070217</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34781,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,7 +34947,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="O5" t="n">
         <v>667.515206607857</v>
@@ -34957,7 +34959,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.8936957823703</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35410,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>761.0595563990898</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078568</v>
+        <v>882.3423864777237</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078567</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>138.4873165037804</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>145.5272350047205</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>88.52591951400984</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,22 +36123,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36364,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36601,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36674,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36838,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36911,7 +36913,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37148,7 +37150,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37312,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37552,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>145.5272350047205</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>428214.9964843298</v>
+        <v>426092.8573632747</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2069122.084925922</v>
+        <v>2069122.084925924</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -667,19 +667,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>59.40801272130588</v>
+        <v>144.5449679740213</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -828,7 +828,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>105.2234111170471</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>173.7040795765152</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -910,10 +910,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>28.60468344882564</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>149.4370413361365</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>54.49360828358961</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>64.31307662928364</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>185.1447535886767</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1372,19 +1372,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>245.2883219075749</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>130.9953060288635</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1435,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.3431845617047</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>61.08641542222794</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4033,7 +4033,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2190.910269352854</v>
+        <v>927.4534741707607</v>
       </c>
       <c r="C2" t="n">
-        <v>1752.767796536277</v>
+        <v>489.311001354184</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.858011710722</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="E2" t="n">
-        <v>883.0832668690169</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4333,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V2" t="n">
-        <v>2610.052732773543</v>
+        <v>2181.181631776704</v>
       </c>
       <c r="W2" t="n">
-        <v>2610.052732773543</v>
+        <v>2181.181631776704</v>
       </c>
       <c r="X2" t="n">
-        <v>2190.910269352854</v>
+        <v>1762.039168356015</v>
       </c>
       <c r="Y2" t="n">
-        <v>2190.910269352854</v>
+        <v>1353.753044655668</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>992.5572028308845</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C4" t="n">
-        <v>819.9954913141095</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D4" t="n">
-        <v>654.1174985156322</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="E4" t="n">
-        <v>484.3594947663694</v>
+        <v>413.9387145837287</v>
       </c>
       <c r="F4" t="n">
         <v>307.6524407281256</v>
@@ -4518,22 +4518,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2494.602160192524</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U4" t="n">
-        <v>2216.169159445629</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V4" t="n">
-        <v>1929.213651316059</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W4" t="n">
-        <v>1657.187246902351</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X4" t="n">
-        <v>1411.795492235764</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1184.375821549872</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.11942280532</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>1668.976949988743</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>1233.067165163188</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>799.292420321483</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>371.4249907306907</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
         <v>53.40121652862856</v>
@@ -4567,28 +4567,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>801.8819313892766</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4600,19 +4600,19 @@
         <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>2107.11942280532</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>2107.11942280532</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.11942280532</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.11942280532</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>867.0923738769416</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>694.5306623601665</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>528.6526695616892</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>358.8946658124264</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
         <v>53.40121652862856</v>
@@ -4752,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2615.016777660126</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T7" t="n">
-        <v>2369.137331238581</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>2090.704330491686</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1803.748822362116</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1531.722417948408</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1286.330663281821</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>1058.910992595929</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>744.3459918350084</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="C8" t="n">
-        <v>744.3459918350084</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>744.3459918350084</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>744.3459918350084</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4804,25 +4804,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
         <v>2500.906761678371</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739146</v>
+        <v>2605.098122765485</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.64701815018</v>
+        <v>2605.098122765485</v>
       </c>
       <c r="X8" t="n">
-        <v>1152.632115535355</v>
+        <v>2185.955659344796</v>
       </c>
       <c r="Y8" t="n">
-        <v>744.3459918350084</v>
+        <v>1777.669535644449</v>
       </c>
     </row>
     <row r="9">
@@ -4883,13 +4883,13 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
         <v>1058.729261281022</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>254.6973458817257</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>77.99029184348186</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1437.165577540213</v>
+        <v>1364.370043444389</v>
       </c>
       <c r="C11" t="n">
-        <v>1189.39959581539</v>
+        <v>926.2275706278124</v>
       </c>
       <c r="D11" t="n">
-        <v>1189.39959581539</v>
+        <v>926.2275706278124</v>
       </c>
       <c r="E11" t="n">
-        <v>1189.39959581539</v>
+        <v>492.4528257861076</v>
       </c>
       <c r="F11" t="n">
-        <v>761.5321662245977</v>
+        <v>360.1343348478616</v>
       </c>
       <c r="G11" t="n">
         <v>360.1343348478616</v>
       </c>
       <c r="H11" t="n">
-        <v>71.00418029107789</v>
+        <v>71.00418029107782</v>
       </c>
       <c r="I11" t="n">
-        <v>70.58739091821789</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="J11" t="n">
-        <v>70.58739091821789</v>
+        <v>505.8420783711357</v>
       </c>
       <c r="K11" t="n">
-        <v>904.9376828763959</v>
+        <v>1340.192370329314</v>
       </c>
       <c r="L11" t="n">
-        <v>1658.386643711495</v>
+        <v>2154.5608851189</v>
       </c>
       <c r="M11" t="n">
-        <v>1658.386643711495</v>
+        <v>2154.5608851189</v>
       </c>
       <c r="N11" t="n">
-        <v>1658.386643711495</v>
+        <v>2154.5608851189</v>
       </c>
       <c r="O11" t="n">
-        <v>2531.905606324441</v>
+        <v>2154.5608851189</v>
       </c>
       <c r="P11" t="n">
-        <v>3360.215481157838</v>
+        <v>2982.870759952297</v>
       </c>
       <c r="Q11" t="n">
-        <v>3360.215481157838</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="R11" t="n">
-        <v>3529.369545910894</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="S11" t="n">
-        <v>3529.369545910894</v>
+        <v>3445.717672094728</v>
       </c>
       <c r="T11" t="n">
-        <v>3309.302318783933</v>
+        <v>3225.650444967767</v>
       </c>
       <c r="U11" t="n">
-        <v>3050.08001610095</v>
+        <v>2966.428142284783</v>
       </c>
       <c r="V11" t="n">
-        <v>2687.463066034777</v>
+        <v>2603.81119221861</v>
       </c>
       <c r="W11" t="n">
-        <v>2282.60761144581</v>
+        <v>2198.955737629643</v>
       </c>
       <c r="X11" t="n">
-        <v>1863.465148025121</v>
+        <v>2198.955737629643</v>
       </c>
       <c r="Y11" t="n">
-        <v>1863.465148025121</v>
+        <v>1790.669613929297</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>112.3230431020054</v>
       </c>
       <c r="H12" t="n">
-        <v>70.58739091821789</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="I12" t="n">
-        <v>96.65106407867549</v>
+        <v>96.65106407867542</v>
       </c>
       <c r="J12" t="n">
         <v>421.2093890448878</v>
       </c>
       <c r="K12" t="n">
-        <v>421.2093890448878</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="L12" t="n">
-        <v>421.2093890448878</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="M12" t="n">
-        <v>421.2093890448878</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="N12" t="n">
-        <v>421.2093890448878</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="O12" t="n">
-        <v>421.2093890448878</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="P12" t="n">
         <v>1075.915435670611</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>780.08122833583</v>
+        <v>921.0834279951491</v>
       </c>
       <c r="C13" t="n">
-        <v>607.519516819055</v>
+        <v>748.5217164783741</v>
       </c>
       <c r="D13" t="n">
-        <v>441.6415240205777</v>
+        <v>582.6437236798968</v>
       </c>
       <c r="E13" t="n">
-        <v>271.8835202713149</v>
+        <v>412.885719930634</v>
       </c>
       <c r="F13" t="n">
-        <v>95.17646623307112</v>
+        <v>236.1786658923901</v>
       </c>
       <c r="G13" t="n">
-        <v>70.58739091821789</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="H13" t="n">
-        <v>70.58739091821789</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="I13" t="n">
-        <v>70.58739091821789</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="J13" t="n">
         <v>157.1670760829077</v>
@@ -5205,7 +5205,7 @@
         <v>431.9255306540433</v>
       </c>
       <c r="L13" t="n">
-        <v>850.1354124220044</v>
+        <v>850.1354124220043</v>
       </c>
       <c r="M13" t="n">
         <v>1309.619279602917</v>
@@ -5226,25 +5226,25 @@
         <v>2687.247000821018</v>
       </c>
       <c r="S13" t="n">
-        <v>2528.005632119014</v>
+        <v>2669.007831778333</v>
       </c>
       <c r="T13" t="n">
-        <v>2282.126185697469</v>
+        <v>2423.128385356788</v>
       </c>
       <c r="U13" t="n">
-        <v>2003.693184950575</v>
+        <v>2144.695384609894</v>
       </c>
       <c r="V13" t="n">
-        <v>1716.737676821005</v>
+        <v>1857.739876480324</v>
       </c>
       <c r="W13" t="n">
-        <v>1444.711272407297</v>
+        <v>1585.713472066616</v>
       </c>
       <c r="X13" t="n">
-        <v>1199.319517740709</v>
+        <v>1340.321717400028</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.8998470548172</v>
+        <v>1112.902046714136</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
@@ -5287,13 +5287,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
@@ -5320,10 +5320,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5542,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2594.704009018975</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6688,28 +6688,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7423,40 +7423,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7608,13 +7608,13 @@
         <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7660,25 +7660,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
         <v>4550.100609912873</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7981,11 +7981,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L2" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794094</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>667.515206607857</v>
@@ -8239,7 +8239,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8461,19 +8461,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8531,16 +8531,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>761.0595563990898</v>
+        <v>822.5944593834208</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>882.3423864777237</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8935,16 +8935,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>299.5827678442058</v>
+        <v>214.4458125914904</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22716,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>69.71657238081427</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22758,7 +22758,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22798,10 +22798,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>368.7791696141431</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -22840,13 +22840,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>251.3698587069405</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -22953,13 +22953,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>103.1553467313937</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>294.6777039362281</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>229.8062851978057</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>188.472726180836</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>292.5934492660208</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457244.82359992</v>
+        <v>457244.8235999199</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>546969.1104180543</v>
+        <v>546969.1104180539</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712327.4728905304</v>
+        <v>712327.4728905305</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712327.4728905305</v>
+        <v>712327.4728905304</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712327.4728905305</v>
+        <v>712327.4728905304</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712327.4728905305</v>
+        <v>712327.4728905304</v>
       </c>
     </row>
     <row r="16">
@@ -26319,13 +26319,13 @@
         <v>169095.6142289526</v>
       </c>
       <c r="D2" t="n">
-        <v>169095.6142289525</v>
+        <v>169095.6142289526</v>
       </c>
       <c r="E2" t="n">
-        <v>202276.926750584</v>
+        <v>202276.9267505838</v>
       </c>
       <c r="F2" t="n">
-        <v>263428.7920686761</v>
+        <v>263428.7920686762</v>
       </c>
       <c r="G2" t="n">
         <v>263428.7920686761</v>
@@ -26352,7 +26352,7 @@
         <v>263428.7920686761</v>
       </c>
       <c r="O2" t="n">
-        <v>263428.792068676</v>
+        <v>263428.7920686761</v>
       </c>
       <c r="P2" t="n">
         <v>263428.7920686761</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>64142.66971118504</v>
+        <v>64142.66971118481</v>
       </c>
       <c r="F3" t="n">
-        <v>113440.8343649013</v>
+        <v>113440.8343649015</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53535.79253229024</v>
+        <v>53535.79253229006</v>
       </c>
       <c r="N3" t="n">
-        <v>96971.03661968611</v>
+        <v>96971.0366196863</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>35023.37484795161</v>
       </c>
       <c r="D4" t="n">
-        <v>35023.37484795162</v>
+        <v>35023.37484795161</v>
       </c>
       <c r="E4" t="n">
-        <v>41895.94544471843</v>
+        <v>41895.94544471841</v>
       </c>
       <c r="F4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
@@ -26441,13 +26441,13 @@
         <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962276</v>
@@ -26456,10 +26456,10 @@
         <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="P4" t="n">
         <v>54561.82510962277</v>
-      </c>
-      <c r="P4" t="n">
-        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53646.41709784559</v>
+        <v>53646.41709784554</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163839.9837648015</v>
+        <v>-164334.8739933828</v>
       </c>
       <c r="C6" t="n">
-        <v>59859.71481924328</v>
+        <v>59364.82459066202</v>
       </c>
       <c r="D6" t="n">
-        <v>59859.71481924322</v>
+        <v>59364.82459066202</v>
       </c>
       <c r="E6" t="n">
-        <v>42591.8944968349</v>
+        <v>42262.91083086195</v>
       </c>
       <c r="F6" t="n">
-        <v>17707.89398835957</v>
+        <v>17684.66964897676</v>
       </c>
       <c r="G6" t="n">
-        <v>131148.7283532608</v>
+        <v>131125.5040138782</v>
       </c>
       <c r="H6" t="n">
-        <v>131148.7283532608</v>
+        <v>131125.5040138782</v>
       </c>
       <c r="I6" t="n">
-        <v>131148.7283532608</v>
+        <v>131125.5040138782</v>
       </c>
       <c r="J6" t="n">
-        <v>-43502.62036444531</v>
+        <v>-43525.84470382796</v>
       </c>
       <c r="K6" t="n">
-        <v>131148.7283532608</v>
+        <v>131125.5040138782</v>
       </c>
       <c r="L6" t="n">
-        <v>131148.7283532608</v>
+        <v>131125.5040138782</v>
       </c>
       <c r="M6" t="n">
-        <v>77612.93582097057</v>
+        <v>77589.71148158814</v>
       </c>
       <c r="N6" t="n">
-        <v>34177.6917335747</v>
+        <v>34154.46739419188</v>
       </c>
       <c r="O6" t="n">
-        <v>131148.7283532608</v>
+        <v>131125.5040138782</v>
       </c>
       <c r="P6" t="n">
-        <v>131148.7283532608</v>
+        <v>131125.5040138782</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>882.3423864777236</v>
+        <v>882.3423864777228</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>214.8271798698666</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="F4" t="n">
-        <v>395.9181169070217</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>214.8271798698666</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="N4" t="n">
-        <v>395.9181169070217</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>214.8271798698666</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="N4" t="n">
-        <v>395.9181169070217</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34701,11 +34701,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L2" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794094</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>667.515206607857</v>
@@ -34959,7 +34959,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>661.3192390158827</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35181,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35251,16 +35251,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>761.0595563990898</v>
+        <v>822.5944593834208</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>882.3423864777237</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35655,16 +35655,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36676,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37791,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38189,13 +38189,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
